--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_map_type_info[游戏世界点位类型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_map_type_info[游戏世界点位类型信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>名字-英文</t>
+  </si>
+  <si>
+    <t>ui_creature_attribute_3</t>
   </si>
   <si>
     <t>起点</t>
@@ -1057,7 +1060,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1132,66 +1135,84 @@
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="12" customHeight="1"/>
